--- a/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
+++ b/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\過去の進捗\作成資料20210712\準最適基底を含めた基底選出\Air\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E49748-5D7E-4B94-A439-D057BA3F22EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66E1220-4864-400B-9291-649EA9A6542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ICA_Basis</t>
   </si>
@@ -180,6 +180,16 @@
     </rPh>
     <rPh sb="5" eb="10">
       <t>キテイバンゴウモド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4の手法（MSE選出）</t>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センシュツ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1511,6 +1521,118 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4の手法（MSE選出）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$Y$7:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73662400000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63960799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58138999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51180799999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43419499999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33527800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21878800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$Z$7:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.667694000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.576215999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.920864000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.164391999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.374238999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.104703000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.85098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77CA-4289-AAFC-C64BF0FA36BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2182,10 +2304,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68353102705453817"/>
-          <c:y val="0.61183964458116791"/>
-          <c:w val="0.30486579256510637"/>
-          <c:h val="0.34624580474713484"/>
+          <c:x val="0.67472047822216064"/>
+          <c:y val="0.56904131428015958"/>
+          <c:w val="0.31646894909061479"/>
+          <c:h val="0.38816033181037557"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3835,16 +3957,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3871,16 +3993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4205,15 +4327,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W25"/>
+  <dimension ref="A2:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4230,7 +4352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4270,8 +4392,11 @@
       <c r="V3" t="s">
         <v>23</v>
       </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4330,8 +4455,14 @@
       <c r="W4">
         <v>49.542769999999997</v>
       </c>
+      <c r="Y4">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="Z4">
+        <v>49.542769999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>90</v>
       </c>
@@ -4390,8 +4521,14 @@
       <c r="W5">
         <v>36.365549999999999</v>
       </c>
+      <c r="Y5">
+        <v>1.314719</v>
+      </c>
+      <c r="Z5">
+        <v>36.365549999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>80</v>
       </c>
@@ -4450,8 +4587,14 @@
       <c r="W6">
         <v>33.265554999999999</v>
       </c>
+      <c r="Y6">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>33.265554999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>70</v>
       </c>
@@ -4510,8 +4653,14 @@
       <c r="W7">
         <v>31.667694000000001</v>
       </c>
+      <c r="Y7">
+        <v>0.73662400000000006</v>
+      </c>
+      <c r="Z7">
+        <v>31.667694000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -4570,8 +4719,14 @@
       <c r="W8">
         <v>30.576215999999999</v>
       </c>
+      <c r="Y8">
+        <v>0.63960799999999995</v>
+      </c>
+      <c r="Z8">
+        <v>30.576215999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>50</v>
       </c>
@@ -4630,8 +4785,14 @@
       <c r="W9">
         <v>29.920864000000002</v>
       </c>
+      <c r="Y9">
+        <v>0.58138999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>29.920864000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>40</v>
       </c>
@@ -4690,8 +4851,14 @@
       <c r="W10">
         <v>29.164386</v>
       </c>
+      <c r="Y10">
+        <v>0.51180799999999993</v>
+      </c>
+      <c r="Z10">
+        <v>29.164391999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -4750,8 +4917,14 @@
       <c r="W11">
         <v>28.373875999999999</v>
       </c>
+      <c r="Y11">
+        <v>0.43419499999999994</v>
+      </c>
+      <c r="Z11">
+        <v>28.374238999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4810,8 +4983,14 @@
       <c r="W12">
         <v>27.104703000000001</v>
       </c>
+      <c r="Y12">
+        <v>0.33527800000000002</v>
+      </c>
+      <c r="Z12">
+        <v>27.104703000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4870,8 +5049,14 @@
       <c r="W13">
         <v>24.846229000000001</v>
       </c>
+      <c r="Y13">
+        <v>0.21878800000000001</v>
+      </c>
+      <c r="Z13">
+        <v>24.85098</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4894,7 +5079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4.3955419999999998</v>
       </c>

--- a/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
+++ b/main/main/作成資料（留置所）/過去の進捗/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\過去の進捗\作成資料20210712\準最適基底を含めた基底選出\Air\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66E1220-4864-400B-9291-649EA9A6542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C5E0A-FC7A-4610-9105-DD43F50F59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICA_limits_result1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ICA_Basis</t>
   </si>
@@ -190,6 +190,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>センシュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>複数基底を考慮</t>
+    <rPh sb="0" eb="4">
+      <t>フクスウキテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウリョ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -867,8 +877,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.9586667693152557E-2"/>
-          <c:y val="2.9090734774745667E-2"/>
+          <c:x val="2.9586682807418944E-2"/>
+          <c:y val="1.044293275161534E-2"/>
           <c:w val="0.96011648414120565"/>
           <c:h val="0.94094967332345214"/>
         </c:manualLayout>
@@ -876,322 +886,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ICA_limits_result1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Step2（準最適含む付加あり）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$K$7:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.73662400000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63960799999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58196799999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51235299999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43635200000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33527800000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22000500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$L$7:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>31.667694000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.576215999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.917819000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.162645000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.369544000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.104703000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.850397000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A95-4AED-8AAE-B8865922B4CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ICA_limits_result1!$P$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Step2（最適付加あり）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$P$19:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.73686299999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64018599999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58170100000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51209299999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43458299999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33539200000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22009199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$Q$19:$Q$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>31.667417</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.575562000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.920352000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.163328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.373066999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.103904</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.843800999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6A95-4AED-8AAE-B8865922B4CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ICA_limits_result1!$J$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Step2（基底0＆１付加あり）</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$J$19:$J$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.87348999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77078100000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71305099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66429300000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54868499999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42230800000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35975699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ICA_limits_result1!$K$19:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>31.670846999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.584102999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.924807000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.170524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.386685</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.125243000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.91188</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6A95-4AED-8AAE-B8865922B4CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
@@ -1582,7 +1276,7 @@
                   <c:v>0.58138999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51180799999999993</c:v>
+                  <c:v>0.51180800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43419499999999994</c:v>
@@ -1630,6 +1324,118 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-77CA-4289-AAFC-C64BF0FA36BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>複数基底を考慮</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$AB$7:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73662400000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63960799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58045899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43101899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33527800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21878800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$AC$7:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.667694000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.576215999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.924348999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.16818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.386896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.104703000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.85098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72DC-4EA2-BAC6-57339607D6F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1647,12 +1453,138 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step2（準最適含む付加あり）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$K$7:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.73662400000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.63960799999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.58196799999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.51235299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.43635200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.33527800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.22000500000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$L$7:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.667694000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.576215999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29.917819000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.162645000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.369544000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.104703000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24.850397000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ICA_limits_result1!$G$2</c15:sqref>
                         </c15:formulaRef>
@@ -1693,8 +1625,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ICA_limits_result1!$J$7:$J$13</c15:sqref>
                         </c15:formulaRef>
@@ -1729,8 +1661,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>ICA_limits_result1!$L$7:$L$13</c15:sqref>
                         </c15:formulaRef>
@@ -1764,9 +1696,135 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step2（最適付加あり）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$P$19:$P$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.73686299999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.64018599999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.58170100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.51209299999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.43458299999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.33539200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.22009199999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$Q$19:$Q$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.667417</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.575562000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29.920352000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.163328</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.373066999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.103904</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24.843800999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-6A95-4AED-8AAE-B8865922B4CE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1891,6 +1949,130 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$J$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step2（基底0＆１付加あり）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$J$19:$J$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.87348999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.77078100000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.71305099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.66429300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.54868499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.42230800000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.35975699999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$K$19:$K$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.670846999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.584102999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29.924807000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.170524</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.386685</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.125243000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24.91188</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-6A95-4AED-8AAE-B8865922B4CE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2306,8 +2488,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.67472047822216064"/>
           <c:y val="0.56904131428015958"/>
-          <c:w val="0.31646894909061479"/>
-          <c:h val="0.38816033181037557"/>
+          <c:w val="0.32527963344435246"/>
+          <c:h val="0.4309587188126307"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3957,16 +4139,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4327,15 +4509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Z25"/>
+  <dimension ref="A2:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4395,8 +4577,11 @@
       <c r="Y3" t="s">
         <v>24</v>
       </c>
+      <c r="AB3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4461,8 +4646,14 @@
       <c r="Z4">
         <v>49.542769999999997</v>
       </c>
+      <c r="AB4">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="AC4">
+        <v>49.542769999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>90</v>
       </c>
@@ -4527,8 +4718,14 @@
       <c r="Z5">
         <v>36.365549999999999</v>
       </c>
+      <c r="AB5">
+        <v>1.314719</v>
+      </c>
+      <c r="AC5">
+        <v>36.365549999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>80</v>
       </c>
@@ -4593,8 +4790,14 @@
       <c r="Z6">
         <v>33.265554999999999</v>
       </c>
+      <c r="AB6">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>33.265554999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>70</v>
       </c>
@@ -4659,8 +4862,14 @@
       <c r="Z7">
         <v>31.667694000000001</v>
       </c>
+      <c r="AB7">
+        <v>0.73662400000000006</v>
+      </c>
+      <c r="AC7">
+        <v>31.667694000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -4725,8 +4934,14 @@
       <c r="Z8">
         <v>30.576215999999999</v>
       </c>
+      <c r="AB8">
+        <v>0.63960799999999995</v>
+      </c>
+      <c r="AC8">
+        <v>30.576215999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>50</v>
       </c>
@@ -4791,8 +5006,14 @@
       <c r="Z9">
         <v>29.920864000000002</v>
       </c>
+      <c r="AB9">
+        <v>0.58045899999999995</v>
+      </c>
+      <c r="AC9">
+        <v>29.924348999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>40</v>
       </c>
@@ -4852,13 +5073,19 @@
         <v>29.164386</v>
       </c>
       <c r="Y10">
-        <v>0.51180799999999993</v>
+        <v>0.51180800000000004</v>
       </c>
       <c r="Z10">
         <v>29.164391999999999</v>
       </c>
+      <c r="AB10">
+        <v>0.51097999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>29.16818</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -4923,8 +5150,14 @@
       <c r="Z11">
         <v>28.374238999999999</v>
       </c>
+      <c r="AB11">
+        <v>0.43101899999999999</v>
+      </c>
+      <c r="AC11">
+        <v>28.386896</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4989,8 +5222,14 @@
       <c r="Z12">
         <v>27.104703000000001</v>
       </c>
+      <c r="AB12">
+        <v>0.33527800000000002</v>
+      </c>
+      <c r="AC12">
+        <v>27.104703000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5055,8 +5294,14 @@
       <c r="Z13">
         <v>24.85098</v>
       </c>
+      <c r="AB13">
+        <v>0.21878800000000001</v>
+      </c>
+      <c r="AC13">
+        <v>24.85098</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5079,7 +5324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4.3955419999999998</v>
       </c>
